--- a/chatbot/actions/list_new.xlsx
+++ b/chatbot/actions/list_new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -383,11 +383,11 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,7 +846,9 @@
       <c r="C40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
